--- a/Commands_CheatSheet.xlsx
+++ b/Commands_CheatSheet.xlsx
@@ -1,22 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26124"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Interests\Python\Good read\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yash/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6765"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14140" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Python" sheetId="1" r:id="rId1"/>
+    <sheet name="Oracle" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="377">
   <si>
     <t>Command</t>
   </si>
@@ -729,13 +733,439 @@
   </si>
   <si>
     <t>Built-In Methods</t>
+  </si>
+  <si>
+    <t>ABS</t>
+  </si>
+  <si>
+    <t>ACOS</t>
+  </si>
+  <si>
+    <t>ADD_MONTHS</t>
+  </si>
+  <si>
+    <t>ASCII</t>
+  </si>
+  <si>
+    <t>ASCIISTR</t>
+  </si>
+  <si>
+    <t>ASIN</t>
+  </si>
+  <si>
+    <t>ATAN</t>
+  </si>
+  <si>
+    <t>ATAN2</t>
+  </si>
+  <si>
+    <t>AVG</t>
+  </si>
+  <si>
+    <t>BFILENAME</t>
+  </si>
+  <si>
+    <t>BIN_TO_NUM</t>
+  </si>
+  <si>
+    <t>BITAND</t>
+  </si>
+  <si>
+    <t>CARDINALITY</t>
+  </si>
+  <si>
+    <t>CASE</t>
+  </si>
+  <si>
+    <t>CAST</t>
+  </si>
+  <si>
+    <t>CEIL</t>
+  </si>
+  <si>
+    <t>CHARTOROWID</t>
+  </si>
+  <si>
+    <t>CHR</t>
+  </si>
+  <si>
+    <t>COALESCE</t>
+  </si>
+  <si>
+    <t>COMPOSE</t>
+  </si>
+  <si>
+    <t>CONCAT</t>
+  </si>
+  <si>
+    <t>CONVERT</t>
+  </si>
+  <si>
+    <t>CORR</t>
+  </si>
+  <si>
+    <t>COS</t>
+  </si>
+  <si>
+    <t>COSH</t>
+  </si>
+  <si>
+    <t>COUNT</t>
+  </si>
+  <si>
+    <t>COVAR_POP</t>
+  </si>
+  <si>
+    <t>COVAR_SAMP</t>
+  </si>
+  <si>
+    <t>CUME_DIST</t>
+  </si>
+  <si>
+    <t>CURRENT_DATE</t>
+  </si>
+  <si>
+    <t>CURRENT_TIMESTAMP</t>
+  </si>
+  <si>
+    <t>DBTIMEZONE</t>
+  </si>
+  <si>
+    <t>DECODE</t>
+  </si>
+  <si>
+    <t>DECOMPOSE</t>
+  </si>
+  <si>
+    <t>DENSE_RANK</t>
+  </si>
+  <si>
+    <t>DUMP</t>
+  </si>
+  <si>
+    <t>EMPTY_BLOB</t>
+  </si>
+  <si>
+    <t>EMPTY_CLOB</t>
+  </si>
+  <si>
+    <t>EXP</t>
+  </si>
+  <si>
+    <t>EXTRACT</t>
+  </si>
+  <si>
+    <t>FIRST_VALUE</t>
+  </si>
+  <si>
+    <t>FLOOR</t>
+  </si>
+  <si>
+    <t>FROM_TZ</t>
+  </si>
+  <si>
+    <t>GREATEST</t>
+  </si>
+  <si>
+    <t>GROUP_ID</t>
+  </si>
+  <si>
+    <t>HEXTORAW</t>
+  </si>
+  <si>
+    <t>INITCAP</t>
+  </si>
+  <si>
+    <t>INSTR</t>
+  </si>
+  <si>
+    <t>INSTR2</t>
+  </si>
+  <si>
+    <t>INSTR4</t>
+  </si>
+  <si>
+    <t>INSTRB</t>
+  </si>
+  <si>
+    <t>INSTRC</t>
+  </si>
+  <si>
+    <t>LAG</t>
+  </si>
+  <si>
+    <t>LAST_DAY</t>
+  </si>
+  <si>
+    <t>LAST_VALUE</t>
+  </si>
+  <si>
+    <t>LEAD</t>
+  </si>
+  <si>
+    <t>LEAST</t>
+  </si>
+  <si>
+    <t>LENGTH</t>
+  </si>
+  <si>
+    <t>LENGTH2</t>
+  </si>
+  <si>
+    <t>LENGTH4</t>
+  </si>
+  <si>
+    <t>LENGTHB</t>
+  </si>
+  <si>
+    <t>LENGTHC</t>
+  </si>
+  <si>
+    <t>LISTAGG</t>
+  </si>
+  <si>
+    <t>LN</t>
+  </si>
+  <si>
+    <t>LNNVL</t>
+  </si>
+  <si>
+    <t>LOCALTIMESTAMP</t>
+  </si>
+  <si>
+    <t>LOG</t>
+  </si>
+  <si>
+    <t>LOWER</t>
+  </si>
+  <si>
+    <t>LPAD</t>
+  </si>
+  <si>
+    <t>LTRIM</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MEDIAN</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MOD</t>
+  </si>
+  <si>
+    <t>MONTHS_BETWEEN</t>
+  </si>
+  <si>
+    <t>NANVL</t>
+  </si>
+  <si>
+    <t>NCHR</t>
+  </si>
+  <si>
+    <t>NEW_TIME</t>
+  </si>
+  <si>
+    <t>NEXT_DAY</t>
+  </si>
+  <si>
+    <t>NTH_VALUE</t>
+  </si>
+  <si>
+    <t>NULLIF</t>
+  </si>
+  <si>
+    <t>NUMTODSINTERVAL</t>
+  </si>
+  <si>
+    <t>NUMTOYMINTERVAL</t>
+  </si>
+  <si>
+    <t>NVL</t>
+  </si>
+  <si>
+    <t>NVL2</t>
+  </si>
+  <si>
+    <t>POWER</t>
+  </si>
+  <si>
+    <t>RANK</t>
+  </si>
+  <si>
+    <t>RAWTOHEX</t>
+  </si>
+  <si>
+    <t>REGEXP_COUNT</t>
+  </si>
+  <si>
+    <t>REGEXP_INSTR</t>
+  </si>
+  <si>
+    <t>REGEXP_REPLACE</t>
+  </si>
+  <si>
+    <t>REGEXP_SUBSTR</t>
+  </si>
+  <si>
+    <t>REMAINDER</t>
+  </si>
+  <si>
+    <t>REPLACE</t>
+  </si>
+  <si>
+    <t>ROUND</t>
+  </si>
+  <si>
+    <t>ROWNUM</t>
+  </si>
+  <si>
+    <t>RPAD</t>
+  </si>
+  <si>
+    <t>RTRIM</t>
+  </si>
+  <si>
+    <t>SESSIONTIMEZONE</t>
+  </si>
+  <si>
+    <t>SIGN</t>
+  </si>
+  <si>
+    <t>SIN</t>
+  </si>
+  <si>
+    <t>SINH</t>
+  </si>
+  <si>
+    <t>SOUNDEX</t>
+  </si>
+  <si>
+    <t>SQRT</t>
+  </si>
+  <si>
+    <t>STDDEV</t>
+  </si>
+  <si>
+    <t>SUBSTR</t>
+  </si>
+  <si>
+    <t>SUM</t>
+  </si>
+  <si>
+    <t>SYS_COUNTEXT</t>
+  </si>
+  <si>
+    <t>SYSDATE</t>
+  </si>
+  <si>
+    <t>SYSTIMESTAMP</t>
+  </si>
+  <si>
+    <t>TAN</t>
+  </si>
+  <si>
+    <t>TANH</t>
+  </si>
+  <si>
+    <t>TO_CHAR</t>
+  </si>
+  <si>
+    <t>TO_CLOB</t>
+  </si>
+  <si>
+    <t>TO_DATE</t>
+  </si>
+  <si>
+    <t>TO_DSINTERVAL</t>
+  </si>
+  <si>
+    <t>TO_LOB</t>
+  </si>
+  <si>
+    <t>TO_MULTI_BYTE</t>
+  </si>
+  <si>
+    <t>TO_NUMBER</t>
+  </si>
+  <si>
+    <t>TO_SINGLE_BYTE</t>
+  </si>
+  <si>
+    <t>TO_TIMESTAMP</t>
+  </si>
+  <si>
+    <t>TO_TIMESTAMP_TZ</t>
+  </si>
+  <si>
+    <t>TO_YMINTERVAL</t>
+  </si>
+  <si>
+    <t>TRIM</t>
+  </si>
+  <si>
+    <t>TRUNC</t>
+  </si>
+  <si>
+    <t>TZ_OFFSET</t>
+  </si>
+  <si>
+    <t>UID</t>
+  </si>
+  <si>
+    <t>UPPER</t>
+  </si>
+  <si>
+    <t>USER</t>
+  </si>
+  <si>
+    <t>USERENV</t>
+  </si>
+  <si>
+    <t>VAR_POP</t>
+  </si>
+  <si>
+    <t>VAR_SAMP</t>
+  </si>
+  <si>
+    <t>VARIANCE</t>
+  </si>
+  <si>
+    <t>VSIZE</t>
+  </si>
+  <si>
+    <t>SQLCODE</t>
+  </si>
+  <si>
+    <t>SQLERRM</t>
+  </si>
+  <si>
+    <t>The Oracle/PLSQL ABS function returns the absolute value of a number.</t>
+  </si>
+  <si>
+    <t>returns the arc cosine of a number.</t>
+  </si>
+  <si>
+    <t>returns a date with a specified number of months added.</t>
+  </si>
+  <si>
+    <t>returns the NUMBER code that represents the specified character.</t>
+  </si>
+  <si>
+    <t>https://www.techonthenet.com/oracle/functions/index_alpha.php</t>
+  </si>
+  <si>
+    <t>LINK TO ALL FUNCTIONS:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -757,6 +1187,24 @@
       <name val="Book Antiqua"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF555555"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF333333"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -776,124 +1224,126 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -906,8 +1356,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1188,17 +1641,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B123"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.140625" customWidth="1"/>
-    <col min="2" max="2" width="85.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.1640625" customWidth="1"/>
+    <col min="2" max="2" width="85.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1206,13 +1659,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="B2" s="6"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="7"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1220,7 +1673,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>165</v>
       </c>
@@ -1228,7 +1681,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>166</v>
       </c>
@@ -1236,7 +1689,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>167</v>
       </c>
@@ -1244,7 +1697,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>168</v>
       </c>
@@ -1252,7 +1705,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>169</v>
       </c>
@@ -1260,7 +1713,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>170</v>
       </c>
@@ -1268,7 +1721,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>171</v>
       </c>
@@ -1276,7 +1729,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>92</v>
       </c>
@@ -1284,7 +1737,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>172</v>
       </c>
@@ -1292,7 +1745,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>173</v>
       </c>
@@ -1300,7 +1753,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>174</v>
       </c>
@@ -1308,7 +1761,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>175</v>
       </c>
@@ -1316,7 +1769,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>176</v>
       </c>
@@ -1324,7 +1777,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>177</v>
       </c>
@@ -1332,7 +1785,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>178</v>
       </c>
@@ -1340,7 +1793,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>179</v>
       </c>
@@ -1348,7 +1801,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>180</v>
       </c>
@@ -1356,7 +1809,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>181</v>
       </c>
@@ -1364,7 +1817,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>182</v>
       </c>
@@ -1372,7 +1825,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>183</v>
       </c>
@@ -1380,7 +1833,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>184</v>
       </c>
@@ -1388,7 +1841,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>185</v>
       </c>
@@ -1396,7 +1849,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>186</v>
       </c>
@@ -1404,7 +1857,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>187</v>
       </c>
@@ -1412,7 +1865,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>188</v>
       </c>
@@ -1420,7 +1873,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>189</v>
       </c>
@@ -1428,7 +1881,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>190</v>
       </c>
@@ -1436,7 +1889,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>191</v>
       </c>
@@ -1444,7 +1897,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>192</v>
       </c>
@@ -1452,7 +1905,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>193</v>
       </c>
@@ -1460,7 +1913,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>194</v>
       </c>
@@ -1468,7 +1921,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>195</v>
       </c>
@@ -1476,7 +1929,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>196</v>
       </c>
@@ -1484,7 +1937,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>197</v>
       </c>
@@ -1492,7 +1945,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>198</v>
       </c>
@@ -1500,7 +1953,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>199</v>
       </c>
@@ -1508,7 +1961,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>200</v>
       </c>
@@ -1516,7 +1969,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>201</v>
       </c>
@@ -1524,7 +1977,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>202</v>
       </c>
@@ -1532,7 +1985,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>203</v>
       </c>
@@ -1540,7 +1993,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>204</v>
       </c>
@@ -1548,13 +2001,13 @@
         <v>164</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="7" t="s">
+    <row r="45" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="B45" s="8"/>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B45" s="9"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>223</v>
       </c>
@@ -1562,7 +2015,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>224</v>
       </c>
@@ -1570,7 +2023,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>225</v>
       </c>
@@ -1578,7 +2031,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>167</v>
       </c>
@@ -1586,7 +2039,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>226</v>
       </c>
@@ -1594,7 +2047,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>173</v>
       </c>
@@ -1602,7 +2055,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>227</v>
       </c>
@@ -1610,7 +2063,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>228</v>
       </c>
@@ -1618,7 +2071,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>229</v>
       </c>
@@ -1626,7 +2079,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>230</v>
       </c>
@@ -1634,7 +2087,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>231</v>
       </c>
@@ -1642,13 +2095,13 @@
         <v>222</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="7" t="s">
+    <row r="57" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="B57" s="8"/>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B57" s="9"/>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>70</v>
       </c>
@@ -1656,7 +2109,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>71</v>
       </c>
@@ -1664,7 +2117,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>72</v>
       </c>
@@ -1672,7 +2125,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>73</v>
       </c>
@@ -1680,7 +2133,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>74</v>
       </c>
@@ -1688,7 +2141,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>75</v>
       </c>
@@ -1696,7 +2149,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>76</v>
       </c>
@@ -1704,7 +2157,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>77</v>
       </c>
@@ -1712,7 +2165,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>78</v>
       </c>
@@ -1720,7 +2173,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>79</v>
       </c>
@@ -1728,7 +2181,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>80</v>
       </c>
@@ -1736,7 +2189,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>81</v>
       </c>
@@ -1744,7 +2197,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>82</v>
       </c>
@@ -1752,7 +2205,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>83</v>
       </c>
@@ -1760,7 +2213,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>84</v>
       </c>
@@ -1768,7 +2221,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>85</v>
       </c>
@@ -1776,7 +2229,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>86</v>
       </c>
@@ -1784,7 +2237,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>87</v>
       </c>
@@ -1792,7 +2245,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>88</v>
       </c>
@@ -1800,7 +2253,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>89</v>
       </c>
@@ -1808,7 +2261,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>90</v>
       </c>
@@ -1816,7 +2269,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>91</v>
       </c>
@@ -1824,7 +2277,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>92</v>
       </c>
@@ -1832,7 +2285,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>93</v>
       </c>
@@ -1840,7 +2293,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>94</v>
       </c>
@@ -1848,7 +2301,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>95</v>
       </c>
@@ -1856,7 +2309,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>96</v>
       </c>
@@ -1864,7 +2317,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>97</v>
       </c>
@@ -1872,7 +2325,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>98</v>
       </c>
@@ -1880,7 +2333,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>99</v>
       </c>
@@ -1888,7 +2341,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>100</v>
       </c>
@@ -1896,7 +2349,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>101</v>
       </c>
@@ -1904,7 +2357,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>102</v>
       </c>
@@ -1912,7 +2365,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>103</v>
       </c>
@@ -1920,7 +2373,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>104</v>
       </c>
@@ -1928,7 +2381,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>105</v>
       </c>
@@ -1936,7 +2389,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>106</v>
       </c>
@@ -1944,7 +2397,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>107</v>
       </c>
@@ -1952,7 +2405,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>108</v>
       </c>
@@ -1960,7 +2413,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>109</v>
       </c>
@@ -1968,7 +2421,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>110</v>
       </c>
@@ -1976,7 +2429,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>111</v>
       </c>
@@ -1984,7 +2437,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>112</v>
       </c>
@@ -1992,7 +2445,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>113</v>
       </c>
@@ -2000,7 +2453,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>114</v>
       </c>
@@ -2008,7 +2461,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>115</v>
       </c>
@@ -2016,7 +2469,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>116</v>
       </c>
@@ -2024,7 +2477,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>117</v>
       </c>
@@ -2032,7 +2485,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>118</v>
       </c>
@@ -2040,7 +2493,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>119</v>
       </c>
@@ -2048,7 +2501,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>120</v>
       </c>
@@ -2056,7 +2509,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>121</v>
       </c>
@@ -2064,7 +2517,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>122</v>
       </c>
@@ -2072,7 +2525,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>123</v>
       </c>
@@ -2080,7 +2533,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>124</v>
       </c>
@@ -2088,7 +2541,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>125</v>
       </c>
@@ -2096,7 +2549,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>126</v>
       </c>
@@ -2104,7 +2557,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>127</v>
       </c>
@@ -2112,7 +2565,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>128</v>
       </c>
@@ -2120,7 +2573,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>205</v>
       </c>
@@ -2128,7 +2581,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>206</v>
       </c>
@@ -2136,7 +2589,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>207</v>
       </c>
@@ -2144,7 +2597,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>208</v>
       </c>
@@ -2152,7 +2605,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>209</v>
       </c>
@@ -2160,7 +2613,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>210</v>
       </c>
@@ -2168,7 +2621,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>211</v>
       </c>
@@ -2185,4 +2638,729 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B137"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="30.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="87.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="B9" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A26" s="5" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A27" s="5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A29" s="5" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A30" s="5" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A31" s="5" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A32" s="5" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A33" s="5" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A34" s="5" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A35" s="5" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A36" s="5" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A37" s="5" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A38" s="5" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A39" s="5" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A40" s="5" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A41" s="5" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A42" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A43" s="5" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A44" s="5" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A45" s="5" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A46" s="5" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A47" s="5" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A48" s="5" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A49" s="5" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A50" s="5" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A51" s="5" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A52" s="5" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A53" s="5" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A54" s="5" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A55" s="5" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A56" s="5" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A57" s="5" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A58" s="5" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A59" s="5" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A60" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A61" s="5" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A62" s="5" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A63" s="5" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A64" s="5" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A65" s="5" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A66" s="5" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A67" s="5" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A68" s="5" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A69" s="5" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A70" s="5" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A71" s="5" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A72" s="5" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A73" s="5" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A74" s="5" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A75" s="5" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A76" s="5" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A77" s="5" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A78" s="5" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A79" s="5" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A80" s="5" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A81" s="5" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A82" s="5" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A83" s="5" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A84" s="5" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A85" s="5" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A86" s="5" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A87" s="5" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A88" s="5" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A89" s="5" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A90" s="5" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A91" s="5" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A92" s="5" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A93" s="5" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A94" s="5" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A95" s="5" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A96" s="5" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A97" s="5" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A98" s="5" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A99" s="5" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A100" s="5" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A101" s="5" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A102" s="5" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A103" s="5" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A104" s="5" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A105" s="5" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A106" s="5" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A107" s="5" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A108" s="5" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A109" s="5" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A110" s="5" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A111" s="5" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A112" s="5" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A113" s="5" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A114" s="5" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A115" s="5" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A116" s="5" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A117" s="5" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A118" s="5" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A119" s="5" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A120" s="5" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A121" s="5" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A122" s="5" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A123" s="5" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A124" s="5" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A125" s="5" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A126" s="5" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A127" s="5" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A128" s="5" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A129" s="5" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A130" s="5" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A131" s="5" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A132" s="5" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A133" s="5" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A134" s="5" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A135" s="5" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A136" s="5" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A137" s="5" t="s">
+        <v>370</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B10" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Commands_CheatSheet.xlsx
+++ b/Commands_CheatSheet.xlsx
@@ -1,34 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26124"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yash/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Learnings\Interview Q&amp;A\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0085F450-EC73-46CB-8A26-1E364FC37FAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14140" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Python" sheetId="1" r:id="rId1"/>
     <sheet name="Oracle" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="181029"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="389">
   <si>
     <t>Command</t>
   </si>
@@ -51,9 +59,6 @@
     <t>Returns True if any item in an iterable object is true</t>
   </si>
   <si>
-    <t>Returns a readable version of an object. Replaces none-ascii characters with escape character</t>
-  </si>
-  <si>
     <t>Returns the binary version of a number</t>
   </si>
   <si>
@@ -90,12 +95,6 @@
     <t>Returns a list of the specified object's properties and methods</t>
   </si>
   <si>
-    <t>Returns the quotient and the remainder when argument1 is divided by argument2</t>
-  </si>
-  <si>
-    <t>Takes a collection (e.g. a tuple) and returns it as an enumerate object</t>
-  </si>
-  <si>
     <t>Evaluates and executes an expression</t>
   </si>
   <si>
@@ -420,15 +419,9 @@
     <t>Converts string into lower case</t>
   </si>
   <si>
-    <t>Returns a centered string</t>
-  </si>
-  <si>
     <t>Returns the number of times a specified value occurs in a string</t>
   </si>
   <si>
-    <t>Returns an encoded version of the string</t>
-  </si>
-  <si>
     <t>Returns true if the string ends with the specified value</t>
   </si>
   <si>
@@ -453,18 +446,12 @@
     <t>Returns True if all characters in the string are digits</t>
   </si>
   <si>
-    <t>Returns True if the string is an identifier</t>
-  </si>
-  <si>
     <t>Returns True if all characters in the string are lower case</t>
   </si>
   <si>
     <t>Returns True if all characters in the string are numeric</t>
   </si>
   <si>
-    <t>Returns True if all characters in the string are printable</t>
-  </si>
-  <si>
     <t>Returns True if all characters in the string are whitespaces</t>
   </si>
   <si>
@@ -474,9 +461,6 @@
     <t>Returns True if all characters in the string are upper case</t>
   </si>
   <si>
-    <t>Joins the elements of an iterable to the end of the string</t>
-  </si>
-  <si>
     <t>Returns a left justified version of the string</t>
   </si>
   <si>
@@ -1159,13 +1143,74 @@
   </si>
   <si>
     <t>LINK TO ALL FUNCTIONS:</t>
+  </si>
+  <si>
+    <t>Hello, And Welcome To My World!</t>
+  </si>
+  <si>
+    <t>hello, and welcome to my world!</t>
+  </si>
+  <si>
+    <t>Input</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Hello, and welcome to my world!</t>
+  </si>
+  <si>
+    <t>Returns a centered string with spaces appended on both sides and of size mentioned in the argument</t>
+  </si>
+  <si>
+    <t>The encode() method encodes the string, using the specified encoding. If no encoding is specified, UTF-8 will be used.</t>
+  </si>
+  <si>
+    <t>H   e   l   l   o</t>
+  </si>
+  <si>
+    <t>Hello</t>
+  </si>
+  <si>
+    <t>Formats specified values in a string based on the dictionary keys</t>
+  </si>
+  <si>
+    <t>point = {'x':4,'y':-5, 'z': 0}
+print('{x} {y} {z}'.format_map(point))</t>
+  </si>
+  <si>
+    <t>4 -5 0</t>
+  </si>
+  <si>
+    <t>Returns True if the string is an identifier, A string is considered a valid identifier if it only contains alphanumeric letters (a-z) and (0-9), or underscores (_). A valid identifier cannot start with a number, or contain any spaces.</t>
+  </si>
+  <si>
+    <t>Returns True if all characters in the string are printable, carriage return and line feed are not printable values</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joins elements of iterable with the character specified </t>
+  </si>
+  <si>
+    <t>I could eat bananas all day(partition("bananas")</t>
+  </si>
+  <si>
+    <t>('I could eat ', 'bananas', ' all day')</t>
+  </si>
+  <si>
+    <t>The ascii() method in Python returns a string containing a printable representation of an object for non-alphabets or invisible characters such as tab, carriage return, form feed, etc. It escapes the non-ASCII characters in the string using \x, \u or \U escapes.</t>
+  </si>
+  <si>
+    <t>Returns the tuple of quotient and the remainder when argument1 is divided by argument2</t>
+  </si>
+  <si>
+    <t>Takes a collection (e.g. a tuple) and returns it as an enumerate object which is a collection of tuples where first element is the index and the second element is the value</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1186,24 +1231,6 @@
       <color theme="1"/>
       <name val="Book Antiqua"/>
       <family val="1"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color rgb="FF555555"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color rgb="FF333333"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1333,17 +1360,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1356,11 +1381,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1638,995 +1666,1037 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B123"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E123"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.1640625" customWidth="1"/>
-    <col min="2" max="2" width="85.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.109375" customWidth="1"/>
+    <col min="2" max="2" width="85.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="B2" s="7"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1" t="s">
+        <v>371</v>
+      </c>
+      <c r="D1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" t="s">
+        <v>369</v>
+      </c>
+      <c r="D2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>369</v>
+      </c>
+      <c r="D3" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C9" t="s">
+        <v>377</v>
+      </c>
+      <c r="D9" t="s">
+        <v>376</v>
+      </c>
+      <c r="E9">
+        <f>LEN(D9)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="D12" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="B13" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="B14" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="B15" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+      <c r="B16" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="B17" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+      <c r="B18" s="10" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B11" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+      <c r="B20" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+      <c r="B21" s="1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+      <c r="B22" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+      <c r="B23" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+      <c r="B24" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
+      <c r="B25" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B27" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B29" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B30" s="1" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
+      <c r="C30" t="s">
+        <v>384</v>
+      </c>
+      <c r="D30" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B31" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B32" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B33" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="B26" s="1" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="B27" s="1" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="B28" s="1" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="B29" s="1" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="B30" s="1" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="B31" s="1" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="B32" s="1" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B35" s="1" t="s">
+    <row r="44" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="B39" s="1" t="s">
+    <row r="45" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="B45" s="8"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="B45" s="9"/>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="2" t="s">
+      <c r="B49" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B48" s="1" t="s">
+      <c r="B56" s="1" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="s">
+    <row r="57" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="B57" s="9"/>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B57" s="8"/>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B61" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62" s="1" t="s">
+      <c r="B64" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B62" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63" s="1" t="s">
+      <c r="B65" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B63" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A64" s="1" t="s">
+      <c r="B66" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B64" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65" s="1" t="s">
+      <c r="B67" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B65" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66" s="1" t="s">
+      <c r="B68" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B66" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A67" s="1" t="s">
+      <c r="B69" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B67" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68" s="1" t="s">
+      <c r="B70" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B68" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69" s="1" t="s">
+      <c r="B71" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B69" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70" s="1" t="s">
+      <c r="B72" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B70" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71" s="1" t="s">
+      <c r="B73" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B71" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A72" s="1" t="s">
+      <c r="B74" s="1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B72" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A73" s="1" t="s">
+      <c r="B75" s="10" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B76" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A74" s="1" t="s">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="B77" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A75" s="1" t="s">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B78" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A76" s="1" t="s">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="B79" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A77" s="1" t="s">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="B80" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A78" s="1" t="s">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="B81" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A79" s="1" t="s">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B82" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A80" s="1" t="s">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="B83" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A81" s="1" t="s">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="B84" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A82" s="1" t="s">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="B85" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A83" s="1" t="s">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="B86" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A84" s="1" t="s">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B87" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A85" s="1" t="s">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="B88" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A86" s="1" t="s">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="B89" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A87" s="1" t="s">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="B90" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A88" s="1" t="s">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="B91" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A89" s="1" t="s">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="B92" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A90" s="1" t="s">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="B93" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A91" s="1" t="s">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="B94" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A92" s="1" t="s">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="B95" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A93" s="1" t="s">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="B96" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A94" s="1" t="s">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="B97" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A95" s="1" t="s">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="B98" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A96" s="1" t="s">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="B99" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A97" s="1" t="s">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="B100" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A98" s="1" t="s">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="B101" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A99" s="1" t="s">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="B102" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A100" s="1" t="s">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="B103" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A101" s="1" t="s">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="B104" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A102" s="1" t="s">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B102" s="1" t="s">
+      <c r="B105" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A103" s="1" t="s">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B103" s="1" t="s">
+      <c r="B106" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A104" s="1" t="s">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B104" s="1" t="s">
+      <c r="B107" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A105" s="1" t="s">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B105" s="1" t="s">
+      <c r="B108" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A106" s="1" t="s">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B106" s="1" t="s">
+      <c r="B109" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A107" s="1" t="s">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B107" s="1" t="s">
+      <c r="B110" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A108" s="1" t="s">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B108" s="1" t="s">
+      <c r="B111" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A109" s="1" t="s">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B109" s="1" t="s">
+      <c r="B112" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A110" s="1" t="s">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B110" s="1" t="s">
+      <c r="B113" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A111" s="1" t="s">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B111" s="1" t="s">
+      <c r="B114" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A112" s="1" t="s">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B112" s="1" t="s">
+      <c r="B115" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A113" s="1" t="s">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B113" s="1" t="s">
+      <c r="B116" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A114" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B114" s="1" t="s">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B117" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A115" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B115" s="1" t="s">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B118" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A116" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B116" s="1" t="s">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B119" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A117" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="B117" s="1" t="s">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B120" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A118" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="B118" s="1" t="s">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B121" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A119" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="B119" s="1" t="s">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B122" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A120" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="B120" s="1" t="s">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B123" s="1" t="s">
         <v>66</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A121" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A122" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A123" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -2641,725 +2711,725 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B137"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="B109" sqref="B109"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="87.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="87.44140625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="20" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="20" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="B9" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="20" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+      <c r="B10" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="20" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="20" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="20" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="20" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="20" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="20" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B9" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="20" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="B10" s="11" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="20" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="20" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="20" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="20" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="20" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="20" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A19" s="5" t="s">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="s">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A21" s="5" t="s">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A22" s="5" t="s">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A23" s="5" t="s">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A24" s="5" t="s">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A25" s="5" t="s">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A26" s="5" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A27" s="5" t="s">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="28" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A28" s="5" t="s">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A29" s="5" t="s">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="30" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A30" s="5" t="s">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="31" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A31" s="5" t="s">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="32" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A32" s="5" t="s">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A33" s="5" t="s">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A34" s="5" t="s">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A35" s="5" t="s">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="36" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A36" s="5" t="s">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="37" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A37" s="5" t="s">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="38" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A38" s="5" t="s">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="39" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A39" s="5" t="s">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="40" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A40" s="5" t="s">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="41" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A41" s="5" t="s">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="42" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A42" s="5" t="s">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="43" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A43" s="5" t="s">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="44" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A44" s="5" t="s">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A45" s="5" t="s">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="46" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A46" s="5" t="s">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="47" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A47" s="5" t="s">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="48" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A48" s="5" t="s">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="49" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A49" s="5" t="s">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A50" s="5" t="s">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="51" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A51" s="5" t="s">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="52" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A52" s="5" t="s">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="53" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A53" s="5" t="s">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="54" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A54" s="5" t="s">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="55" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A55" s="5" t="s">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="56" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A56" s="5" t="s">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="57" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A57" s="5" t="s">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="58" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A58" s="5" t="s">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="59" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A59" s="5" t="s">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="60" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A60" s="5" t="s">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="61" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A61" s="5" t="s">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="62" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A62" s="5" t="s">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="63" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A63" s="5" t="s">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="64" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A64" s="5" t="s">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="65" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A65" s="5" t="s">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="66" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A66" s="5" t="s">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="67" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A67" s="5" t="s">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="68" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A68" s="5" t="s">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="69" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A69" s="5" t="s">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="70" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A70" s="5" t="s">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="71" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A71" s="5" t="s">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="72" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A72" s="5" t="s">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80" s="1" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="73" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A73" s="5" t="s">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81" s="1" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A74" s="5" t="s">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82" s="1" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="75" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A75" s="5" t="s">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83" s="1" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="76" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A76" s="5" t="s">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84" s="1" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="77" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A77" s="5" t="s">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85" s="1" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="78" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A78" s="5" t="s">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86" s="1" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="79" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A79" s="5" t="s">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A87" s="1" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="80" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A80" s="5" t="s">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88" s="1" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="81" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A81" s="5" t="s">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A89" s="1" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="82" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A82" s="5" t="s">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90" s="1" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="83" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A83" s="5" t="s">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A91" s="1" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="84" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A84" s="5" t="s">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A92" s="1" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="85" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A85" s="5" t="s">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A93" s="1" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="86" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A86" s="5" t="s">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A94" s="1" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="87" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A87" s="5" t="s">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A95" s="1" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="88" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A88" s="5" t="s">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A96" s="1" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="89" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A89" s="5" t="s">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A97" s="1" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="90" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A90" s="5" t="s">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A98" s="1" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="91" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A91" s="5" t="s">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A99" s="1" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="92" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A92" s="5" t="s">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A100" s="1" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="93" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A93" s="5" t="s">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A101" s="1" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="94" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A94" s="5" t="s">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A102" s="1" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="95" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A95" s="5" t="s">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A103" s="1" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="96" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A96" s="5" t="s">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A104" s="1" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="97" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A97" s="5" t="s">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A105" s="1" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="98" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A98" s="5" t="s">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A106" s="1" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="99" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A99" s="5" t="s">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A107" s="1" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="100" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A100" s="5" t="s">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A108" s="1" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="101" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A101" s="5" t="s">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A109" s="1" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="102" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A102" s="5" t="s">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A110" s="1" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="103" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A103" s="5" t="s">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A111" s="1" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="104" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A104" s="5" t="s">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A112" s="1" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="105" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A105" s="5" t="s">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A113" s="1" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="106" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A106" s="5" t="s">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A114" s="1" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="107" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A107" s="5" t="s">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A115" s="1" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="108" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A108" s="5" t="s">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A116" s="1" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="109" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A109" s="5" t="s">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A117" s="1" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="110" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A110" s="5" t="s">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A118" s="1" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="111" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A111" s="5" t="s">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A119" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A120" s="1" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="112" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A112" s="5" t="s">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A121" s="1" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="113" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A113" s="5" t="s">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A122" s="1" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="114" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A114" s="5" t="s">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A123" s="1" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="115" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A115" s="5" t="s">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A124" s="1" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="116" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A116" s="5" t="s">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A125" s="1" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="117" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A117" s="5" t="s">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A126" s="1" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="118" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A118" s="5" t="s">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A127" s="1" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="119" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A119" s="5" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A120" s="5" t="s">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A128" s="1" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="121" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A121" s="5" t="s">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A129" s="1" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="122" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A122" s="5" t="s">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A130" s="1" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="123" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A123" s="5" t="s">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A131" s="1" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="124" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A124" s="5" t="s">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A132" s="1" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="125" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A125" s="5" t="s">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A133" s="1" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="126" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A126" s="5" t="s">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A134" s="1" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="127" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A127" s="5" t="s">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A135" s="1" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="128" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A128" s="5" t="s">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A136" s="1" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="129" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A129" s="5" t="s">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A137" s="1" t="s">
         <v>362</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A130" s="5" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A131" s="5" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A132" s="5" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A133" s="5" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A134" s="5" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A135" s="5" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A136" s="5" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A137" s="5" t="s">
-        <v>370</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B10" r:id="rId1"/>
+    <hyperlink ref="B10" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
